--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -697,6 +697,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -697,7 +697,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-16 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2499649997555994</v>
+        <v>0.2479420254623787</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.008250825082508295</v>
+        <v>0.008959426596697906</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2500982968137016</v>
+        <v>0.2475332379862047</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0104136534567546</v>
+        <v>0.006723180356620784</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.249859714223979</v>
+        <v>0.2517811002345863</v>
       </c>
       <c r="E4" s="1">
-        <v>0.007529553497477526</v>
+        <v>-0.0008220611314551096</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2500769892067202</v>
+        <v>0.2527436363168303</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01050252592395662</v>
+        <v>0.0001315616366266426</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0001590823356325544</v>
+        <v>0.003711900890909225</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2479420254623787</v>
+        <v>0.2492382959868233</v>
       </c>
       <c r="E2" s="1">
-        <v>0.008959426596697906</v>
+        <v>-0.005581631358619776</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2475332379862047</v>
+        <v>0.2482758731546902</v>
       </c>
       <c r="E3" s="1">
-        <v>0.006723180356620784</v>
+        <v>0.005226480836237002</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2517811002345863</v>
+        <v>0.2506437559972614</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0008220611314551096</v>
+        <v>-0.02774869109947631</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2527436363168303</v>
+        <v>0.2518420748612253</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0001315616366266426</v>
+        <v>-0.01657458563535885</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.003711900890909225</v>
+        <v>-0.01122276139306022</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2492382959868233</v>
+        <v>0.250660239759725</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.005581631358619776</v>
+        <v>-0.004975124378109652</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2482758731546902</v>
+        <v>0.2524061765412907</v>
       </c>
       <c r="E3" s="1">
-        <v>0.005226480836237002</v>
+        <v>-0.01155401502021947</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2506437559972614</v>
+        <v>0.2464546212445252</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.02774869109947631</v>
+        <v>-0.003000230786983638</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2518420748612253</v>
+        <v>0.2504789624544592</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01657458563535885</v>
+        <v>0.008694489031567443</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01122276139306022</v>
+        <v>-0.002725004774959183</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.250660239759725</v>
+        <v>0.2500946830959018</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.004975124378109652</v>
+        <v>-0.003589743589743399</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2524061765412907</v>
+        <v>0.2501715905651857</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01155401502021947</v>
+        <v>-0.01724137931034475</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2464546212445252</v>
+        <v>0.2463866051778686</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003000230786983638</v>
+        <v>0.01751543209876538</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2504789624544592</v>
+        <v>0.2533471211610439</v>
       </c>
       <c r="E5" s="1">
-        <v>0.008694489031567443</v>
+        <v>0.006630420368651579</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.002725004774959183</v>
+        <v>0.0007842866944447469</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2500946830959018</v>
+        <v>0.2490016186540238</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.003589743589743399</v>
+        <v>-0.02084405558414826</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2501715905651857</v>
+        <v>0.2456656150064469</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01724137931034475</v>
+        <v>-0.01397561700862326</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2463866051778686</v>
+        <v>0.2505057047397971</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01751543209876538</v>
+        <v>-0.006218245241525699</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2533471211610439</v>
+        <v>0.2548270615997321</v>
       </c>
       <c r="E5" s="1">
-        <v>0.006630420368651579</v>
+        <v>-0.007377157159794479</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -590,10 +590,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0007842866944447469</v>
+        <v>-0.01206113731574854</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2490016186540238</v>
+        <v>0.2467879585299595</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.02084405558414826</v>
+        <v>0.007227332457293123</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2456656150064469</v>
+        <v>0.2451895513056127</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01397561700862326</v>
+        <v>0.00361881785283491</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2505057047397971</v>
+        <v>0.2519872516776257</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.006218245241525699</v>
+        <v>-0.01213277375047705</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2548270615997321</v>
+        <v>0.256035238486802</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.007377157159794479</v>
+        <v>-0.0252156602521566</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -590,10 +590,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01206113731574854</v>
+        <v>-0.00684248695052625</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2467879585299595</v>
+        <v>0.2502841431360442</v>
       </c>
       <c r="E2" s="1">
-        <v>0.007227332457293123</v>
+        <v>0.01448140900195716</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2451895513056127</v>
+        <v>0.2477722258533101</v>
       </c>
       <c r="E3" s="1">
-        <v>0.00361881785283491</v>
+        <v>0.01682692307692313</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2519872516776257</v>
+        <v>0.2506449823862091</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01213277375047705</v>
+        <v>-0.0006179514908080108</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.256035238486802</v>
+        <v>0.2512986486244365</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0252156602521566</v>
+        <v>-0.004901293396868511</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -590,10 +590,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.00684248695052625</v>
+        <v>0.006407136380814915</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2502841431360442</v>
+        <v>0.2522921400305184</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01448140900195716</v>
+        <v>0.02481995884773647</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2477722258533101</v>
+        <v>0.25033752338478</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01682692307692313</v>
+        <v>0.01566193853427866</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2506449823862091</v>
+        <v>0.2488953892422488</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0006179514908080108</v>
+        <v>0.02542896892873703</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2512986486244365</v>
+        <v>0.2484749473424527</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.004901293396868511</v>
+        <v>-0.01094540976877811</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -590,10 +590,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.006407136380814915</v>
+        <v>0.01379214444084909</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2522921400305184</v>
+        <v>0.2550365200415783</v>
       </c>
       <c r="E2" s="1">
-        <v>0.02481995884773647</v>
+        <v>-0.003388128999874507</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.25033752338478</v>
+        <v>0.25079923501389</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01566193853427866</v>
+        <v>-0.008728542333430234</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2488953892422488</v>
+        <v>0.2517523377561418</v>
       </c>
       <c r="E4" s="1">
-        <v>0.02542896892873703</v>
+        <v>-0.005200874349890805</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2484749473424527</v>
+        <v>0.24241190718839</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01094540976877811</v>
+        <v>0.01023654724028211</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01379214444084909</v>
+        <v>-0.001881079706010591</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2550365200415783</v>
+        <v>0.2546514430736706</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.003388128999874507</v>
+        <v>-0.002895995970788268</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.25079923501389</v>
+        <v>0.2490786600865685</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.008728542333430234</v>
+        <v>0.007044320516583547</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2517523377561418</v>
+        <v>0.2509149965881966</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.005200874349890805</v>
+        <v>-0.009471131989695403</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.24241190718839</v>
+        <v>0.2453549002515643</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01023654724028211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.001881079706010591</v>
+        <v>-0.00135932868848665</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2546514430736706</v>
+        <v>0.2542595958835814</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002895995970788268</v>
+        <v>-0.00492486425053662</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2490786600865685</v>
+        <v>0.2511746789489762</v>
       </c>
       <c r="E3" s="1">
-        <v>0.007044320516583547</v>
+        <v>-0.007577965607694637</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2509149965881966</v>
+        <v>0.2488768529834765</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.009471131989695403</v>
+        <v>0.01591065554960625</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2453549002515643</v>
+        <v>0.2456888721839659</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.003970970833903964</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.00135932868848665</v>
+        <v>0.001779830155025364</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2542595958835814</v>
+        <v>0.2511067104489074</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.00492486425053662</v>
+        <v>0.01232859479179771</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2511746789489762</v>
+        <v>0.2482762822281707</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.007577965607694637</v>
+        <v>0.00783289817232391</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2488768529834765</v>
+        <v>0.2537600467525148</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01591065554960625</v>
+        <v>0.02066725715972839</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2456888721839659</v>
+        <v>0.2468569605704071</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003970970833903964</v>
+        <v>0.02105122016626448</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001779830155025364</v>
+        <v>0.01548168008956385</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2511067104489074</v>
+        <v>0.2503270204826472</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01232859479179771</v>
+        <v>0.002236858456567736</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2482762822281707</v>
+        <v>0.2464062227527315</v>
       </c>
       <c r="E3" s="1">
-        <v>0.00783289817232391</v>
+        <v>-0.002014968336211953</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2537600467525148</v>
+        <v>0.2550558773967936</v>
       </c>
       <c r="E4" s="1">
-        <v>0.02066725715972839</v>
+        <v>-0.004266705235753565</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2468569605704071</v>
+        <v>0.2482108793678276</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02105122016626448</v>
+        <v>0.002495075508863964</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -590,10 +590,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01548168008956385</v>
+        <v>-0.0004054979853728158</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2503270204826472</v>
+        <v>0.2466256200330046</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002236858456567736</v>
+        <v>0.001261670451678132</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2464062227527315</v>
+        <v>0.2471783317474865</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.002014968336211953</v>
+        <v>0.0002870264064291916</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2550558773967936</v>
+        <v>0.2553790122870609</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.004266705235753565</v>
+        <v>0.01444877907816777</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2482108793678276</v>
+        <v>0.2508170359324481</v>
       </c>
       <c r="E5" s="1">
-        <v>0.002495075508863964</v>
+        <v>0.0001299883010528191</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -590,10 +590,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0004054979853728158</v>
+        <v>0.004104625175843424</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2466256200330046</v>
+        <v>0.2459273407362129</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001261670451678132</v>
+        <v>0.008694556451612767</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2471783317474865</v>
+        <v>0.2462385614571746</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0002870264064291916</v>
+        <v>0.008608321377331363</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2553790122870609</v>
+        <v>0.2580098933130877</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01444877907816777</v>
+        <v>0.009614015097564765</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2508170359324481</v>
+        <v>0.2498242044935249</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0001299883010528191</v>
+        <v>-0.0002599428125812375</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.004104625175843424</v>
+        <v>0.006673500822807377</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -37,7 +37,7 @@
     <t>XLF</t>
   </si>
   <si>
-    <t>XLK</t>
+    <t>XLI</t>
   </si>
   <si>
     <t>XLC</t>
@@ -52,7 +52,7 @@
     <t>Financial Select Sector SPDR Fund</t>
   </si>
   <si>
-    <t>Technology Select Sector SPDR Fund</t>
+    <t>Industrial Select Sector SPDR Fund</t>
   </si>
   <si>
     <t>Communication Services Select Sector SPDR Fund</t>
@@ -64,14 +64,14 @@
     <t>Financial Services Funds</t>
   </si>
   <si>
-    <t>Science &amp; Technology Funds</t>
+    <t>Industrials Funds</t>
   </si>
   <si>
     <t>Telecommunication Funds</t>
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2459273407362129</v>
+        <v>0.2517476653662153</v>
       </c>
       <c r="E2" s="1">
-        <v>0.008694556451612767</v>
+        <v>0.01816173763651996</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2462385614571746</v>
+        <v>0.2469753458585881</v>
       </c>
       <c r="E3" s="1">
-        <v>0.008608321377331363</v>
+        <v>0.01385681293302521</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2580098933130877</v>
+        <v>0.2467070937662453</v>
       </c>
       <c r="E4" s="1">
-        <v>0.009614015097564765</v>
+        <v>0.01365324766589704</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2498242044935249</v>
+        <v>0.2545698950089512</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0002599428125812375</v>
+        <v>0.001710526315789496</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -590,10 +590,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.006673500822807377</v>
+        <v>0.01179826777236381</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2517476653662153</v>
+        <v>0.253330973751845</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01816173763651996</v>
+        <v>-0.01687356875979285</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2469753458585881</v>
+        <v>0.2474778273504167</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01385681293302521</v>
+        <v>-0.01110478359908884</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2467070937662453</v>
+        <v>0.2471593941042721</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01365324766589704</v>
+        <v>-0.005051005249083973</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2545698950089512</v>
+        <v>0.2520318047934663</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001710526315789496</v>
+        <v>-0.007355838696965655</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -590,10 +590,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01179826777236381</v>
+        <v>-0.010125094022433</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.253330973751845</v>
+        <v>0.2516038891816318</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01687356875979285</v>
+        <v>0.01642760818928535</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2474778273504167</v>
+        <v>0.2472328959490401</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01110478359908884</v>
+        <v>0.01871580765908454</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2471593941042721</v>
+        <v>0.2484263306629009</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.005051005249083973</v>
+        <v>0.01094963169420682</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2520318047934663</v>
+        <v>0.2527368842064273</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.007355838696965655</v>
+        <v>0.0116448326055314</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.010125094022433</v>
+        <v>0.01442366897168634</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2516038891816318</v>
+        <v>0.2521009190876301</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01642760818928535</v>
+        <v>0.005910022916415514</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2472328959490401</v>
+        <v>0.2482789656632612</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01871580765908454</v>
+        <v>0.003957037874505298</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2484263306629009</v>
+        <v>0.247575559570084</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01094963169420682</v>
+        <v>-0.002953918865695071</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2527368842064273</v>
+        <v>0.2520445556790247</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0116448326055314</v>
+        <v>0.002092871157619358</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01442366897168634</v>
+        <v>0.0022685501445463</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2521009190876301</v>
+        <v>0.2530168598626733</v>
       </c>
       <c r="E2" s="1">
-        <v>0.005910022916415514</v>
+        <v>-0.002637889688249406</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2482789656632612</v>
+        <v>0.2486972327904387</v>
       </c>
       <c r="E3" s="1">
-        <v>0.003957037874505298</v>
+        <v>0.007882882882882747</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.247575559570084</v>
+        <v>0.2462855303784452</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002953918865695071</v>
+        <v>0.008295476989926831</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2520445556790247</v>
+        <v>0.2520003769684428</v>
       </c>
       <c r="E5" s="1">
-        <v>0.002092871157619358</v>
+        <v>-0.004046469129356467</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0022685501445463</v>
+        <v>0.002316364798016446</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2530168598626733</v>
+        <v>0.2517662468256127</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002637889688249406</v>
+        <v>0.0027650877614811</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2486972327904387</v>
+        <v>0.250078411121557</v>
       </c>
       <c r="E3" s="1">
-        <v>0.007882882882882747</v>
+        <v>0.003910614525139522</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2462855303784452</v>
+        <v>0.2477546960721267</v>
       </c>
       <c r="E4" s="1">
-        <v>0.008295476989926831</v>
+        <v>-0.002056807051909804</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2520003769684428</v>
+        <v>0.2504006459807035</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.004046469129356467</v>
+        <v>0.00917431192660545</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.002316364798016446</v>
+        <v>0.003461786061632832</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2517662468256127</v>
+        <v>0.2515914468296035</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0027650877614811</v>
+        <v>0.006234264476681739</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.250078411121557</v>
+        <v>0.2501902662121832</v>
       </c>
       <c r="E3" s="1">
-        <v>0.003910614525139522</v>
+        <v>0.01780745687256546</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2477546960721267</v>
+        <v>0.2463921555363704</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002056807051909804</v>
+        <v>0.007066444204534283</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2504006459807035</v>
+        <v>0.251826131421843</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00917431192660545</v>
+        <v>0.02766233766233772</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.003461786061632832</v>
+        <v>0.01473095589423989</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2515914468296035</v>
+        <v>0.249484785083856</v>
       </c>
       <c r="E2" s="1">
-        <v>0.006234264476681739</v>
+        <v>-0.01060407482425829</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2501902662121832</v>
+        <v>0.2509488028413245</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01780745687256546</v>
+        <v>-0.00874794969928927</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2463921555363704</v>
+        <v>0.2445310951780648</v>
       </c>
       <c r="E4" s="1">
-        <v>0.007066444204534283</v>
+        <v>-0.006627034402104992</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.251826131421843</v>
+        <v>0.2550353168967546</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02766233766233772</v>
+        <v>-0.01364842663970689</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01473095589423989</v>
+        <v>-0.009942189626225284</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.249484785083856</v>
+        <v>0.2493179965542861</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01060407482425829</v>
+        <v>0.01493256262042375</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2509488028413245</v>
+        <v>0.2512515054480104</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.00874794969928927</v>
+        <v>0.004964147821290732</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2445310951780648</v>
+        <v>0.2453498943725617</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.006627034402104992</v>
+        <v>0.01030118708917871</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2550353168967546</v>
+        <v>0.2540806036251418</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01364842663970689</v>
+        <v>-0.005253042921204321</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.009942189626225284</v>
+        <v>0.006162905057264911</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2493179965542861</v>
+        <v>0.2514910377617529</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01493256262042375</v>
+        <v>0.01091599430469881</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2512515054480104</v>
+        <v>0.2509521607209376</v>
       </c>
       <c r="E3" s="1">
-        <v>0.004964147821290732</v>
+        <v>0.007958287596048219</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2453498943725617</v>
+        <v>0.2463590023950406</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01030118708917871</v>
+        <v>0.004369780539910773</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2540806036251418</v>
+        <v>0.251197799122269</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.005253042921204321</v>
+        <v>-0.009015971148892299</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.006162905057264911</v>
+        <v>0.003554166868703135</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2514910377617529</v>
+        <v>0.2533359143840864</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01091599430469881</v>
+        <v>0.01267605633802815</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2509521607209376</v>
+        <v>0.2520534700962468</v>
       </c>
       <c r="E3" s="1">
-        <v>0.007958287596048219</v>
+        <v>0.008167710318540689</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2463590023950406</v>
+        <v>0.2465592245424962</v>
       </c>
       <c r="E4" s="1">
-        <v>0.004369780539910773</v>
+        <v>0.0009668374746203412</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.251197799122269</v>
+        <v>0.2480513909771706</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.009015971148892299</v>
+        <v>-0.001949571094359337</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.003554166868703135</v>
+        <v>0.005024788927944224</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2533359143840864</v>
+        <v>0.2552645641516195</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01267605633802815</v>
+        <v>0.008460825220213186</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2520534700962468</v>
+        <v>0.2528416936818407</v>
       </c>
       <c r="E3" s="1">
-        <v>0.008167710318540689</v>
+        <v>0.01485282203618676</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2465592245424962</v>
+        <v>0.2455637014722346</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0009668374746203412</v>
+        <v>0.00695450594030711</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2480513909771706</v>
+        <v>0.2463300406943051</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001949571094359337</v>
+        <v>0.01172027607761428</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.005024788927944224</v>
+        <v>0.01050999184554491</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2552645641516195</v>
+        <v>0.254746924910335</v>
       </c>
       <c r="E2" s="1">
-        <v>0.008460825220213186</v>
+        <v>0.009883921388346151</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2528416936818407</v>
+        <v>0.2539283217702668</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01485282203618676</v>
+        <v>0.005321979776476971</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2455637014722346</v>
+        <v>0.2446996840093019</v>
       </c>
       <c r="E4" s="1">
-        <v>0.00695450594030711</v>
+        <v>0.01055155875299763</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2463300406943051</v>
+        <v>0.2466250693100963</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01172027607761428</v>
+        <v>0.007594284978761801</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -590,10 +590,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01050999184554491</v>
+        <v>0.008324204124784629</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.254746924910335</v>
+        <v>0.255140977909357</v>
       </c>
       <c r="E2" s="1">
-        <v>0.009883921388346151</v>
+        <v>-0.004438374871969963</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2539283217702668</v>
+        <v>0.2531722655462616</v>
       </c>
       <c r="E3" s="1">
-        <v>0.005321979776476971</v>
+        <v>-0.0007940709370035659</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2446996840093019</v>
+        <v>0.2452402174721214</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01055155875299763</v>
+        <v>0.0009492168960609781</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2466250693100963</v>
+        <v>0.2464465390722599</v>
       </c>
       <c r="E5" s="1">
-        <v>0.007594284978761801</v>
+        <v>-0.01916198262646907</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.008324204124784629</v>
+        <v>-0.005823066185326464</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.255140977909357</v>
+        <v>0.255496338694521</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.004438374871969963</v>
+        <v>0.003315043438500087</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2531722655462616</v>
+        <v>0.2544529250316451</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0007940709370035659</v>
+        <v>-0.01774834437086104</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2452402174721214</v>
+        <v>0.2469107814524077</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0009492168960609781</v>
+        <v>-0.01479374110953058</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2464465390722599</v>
+        <v>0.2431399548214262</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01916198262646907</v>
+        <v>-0.002865329512893977</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -590,10 +590,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.005823066185326464</v>
+        <v>-0.008018546944756788</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.255496338694521</v>
+        <v>0.2584154364642092</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003315043438500087</v>
+        <v>-0.02517944628004987</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2544529250316451</v>
+        <v>0.2519571370232985</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01774834437086104</v>
+        <v>-0.01024811218985977</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2469107814524077</v>
+        <v>0.245224390562171</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01479374110953058</v>
+        <v>-0.0239676580999133</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2431399548214262</v>
+        <v>0.2444030359503214</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.002865329512893977</v>
+        <v>-0.01959247648902829</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.008018546944756788</v>
+        <v>-0.01975475769409418</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2584154364642092</v>
+        <v>0.2569853624295477</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.02517944628004987</v>
+        <v>0.01531089294062649</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2519571370232985</v>
+        <v>0.2544006757221528</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01024811218985977</v>
+        <v>0.01607629427792912</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.245224390562171</v>
+        <v>0.2441704645751538</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0239676580999133</v>
+        <v>0.01873767258382619</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2444030359503214</v>
+        <v>0.2444434972731456</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01959247648902829</v>
+        <v>0.007194244604316502</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -590,10 +590,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01975475769409418</v>
+        <v>0.01435826803004758</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2569853624295477</v>
+        <v>0.2572267077861345</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01531089294062649</v>
+        <v>0.01197191205249215</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2544006757221528</v>
+        <v>0.2548315560650698</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01607629427792912</v>
+        <v>0.01582193617591843</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2441704645751538</v>
+        <v>0.2452246495492019</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01873767258382619</v>
+        <v>0.01384317521781231</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2444434972731456</v>
+        <v>0.2427170865995939</v>
       </c>
       <c r="E5" s="1">
-        <v>0.007194244604316502</v>
+        <v>0.01970899470899479</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -590,10 +590,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01435826803004758</v>
+        <v>0.01528982170584947</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2572267077861345</v>
+        <v>0.2563861054688267</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01197191205249215</v>
+        <v>0.008758958025253172</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2548315560650698</v>
+        <v>0.2549651135532997</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01582193617591843</v>
+        <v>0.001847940865892461</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2452246495492019</v>
+        <v>0.2448752386022326</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01384317521781231</v>
+        <v>-0.003055475985868417</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2427170865995939</v>
+        <v>0.2437735423756411</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01970899470899479</v>
+        <v>-0.007912829160721335</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01528982170584947</v>
+        <v>3.968678296639716E-05</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2563861054688267</v>
+        <v>0.2586215167488806</v>
       </c>
       <c r="E2" s="1">
-        <v>0.008758958025253172</v>
+        <v>-0.01105096977898057</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2549651135532997</v>
+        <v>0.2554261369643501</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001847940865892461</v>
+        <v>-0.013965744400527</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2448752386022326</v>
+        <v>0.2441173399592604</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003055475985868417</v>
+        <v>-0.01455799252945122</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2437735423756411</v>
+        <v>0.2418350063275089</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.007912829160721335</v>
+        <v>-0.01019874476987448</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>3.968678296639716E-05</v>
+        <v>-0.0124455066252358</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2586215167488806</v>
+        <v>0.2589867191116467</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01105096977898057</v>
+        <v>-0.01527936145952113</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2554261369643501</v>
+        <v>0.2550329349032841</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.013965744400527</v>
+        <v>-0.006146445750935481</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2441173399592604</v>
+        <v>0.2435951465581892</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01455799252945122</v>
+        <v>-0.005637088152395719</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2418350063275089</v>
+        <v>0.24238519942688</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01019874476987448</v>
+        <v>0.001585204755614189</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0124455066252358</v>
+        <v>-0.006513634937429624</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2589867191116467</v>
+        <v>0.2567016281104799</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01527936145952113</v>
+        <v>0.0005789717461786026</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2550329349032841</v>
+        <v>0.2551271942098932</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.006146445750935481</v>
+        <v>0.00053777897284224</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2435951465581892</v>
+        <v>0.243810069027258</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.005637088152395719</v>
+        <v>0.002248069592415192</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.24238519942688</v>
+        <v>0.2443611086523691</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001585204755614189</v>
+        <v>0.01714587180163551</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.006513634937429624</v>
+        <v>0.005023711275084386</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2567016281104799</v>
+        <v>0.2555663594986085</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0005789717461786026</v>
+        <v>0.002198819581067157</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2551271942098932</v>
+        <v>0.2539884317022559</v>
       </c>
       <c r="E3" s="1">
-        <v>0.00053777897284224</v>
+        <v>0.009943563558183044</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.243810069027258</v>
+        <v>0.2431367223363745</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002248069592415192</v>
+        <v>0.004876145894284978</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2443611086523691</v>
+        <v>0.2473084864627612</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01714587180163551</v>
+        <v>-0.003371369294605908</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.005023711275084386</v>
+        <v>0.003439296322016672</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2555663594986085</v>
+        <v>0.2552504219766386</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002198819581067157</v>
+        <v>0.008891454965358037</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2539884317022559</v>
+        <v>0.2556347780639556</v>
       </c>
       <c r="E3" s="1">
-        <v>0.009943563558183044</v>
+        <v>0.004789781798829162</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2431367223363745</v>
+        <v>0.2434848758288402</v>
       </c>
       <c r="E4" s="1">
-        <v>0.004876145894284978</v>
+        <v>0.006211180124223725</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2473084864627612</v>
+        <v>0.2456299241305656</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.003371369294605908</v>
+        <v>0.01821493624772308</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -590,10 +590,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.003439296322016672</v>
+        <v>0.00948044426888095</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2552504219766386</v>
+        <v>0.2551014941107076</v>
       </c>
       <c r="E2" s="1">
-        <v>0.008891454965358037</v>
+        <v>-0.008469726450726855</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2556347780639556</v>
+        <v>0.2544469428103732</v>
       </c>
       <c r="E3" s="1">
-        <v>0.004789781798829162</v>
+        <v>-0.01006355932203384</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2434848758288402</v>
+        <v>0.2426963351702937</v>
       </c>
       <c r="E4" s="1">
-        <v>0.006211180124223725</v>
+        <v>-0.002989969135802517</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2456299241305656</v>
+        <v>0.2477552279086254</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01821493624772308</v>
+        <v>-0.0002555583950932805</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.00948044426888095</v>
+        <v>-0.005510252255523707</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2551014941107076</v>
+        <v>0.2543423447170707</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.008469726450726855</v>
+        <v>0.0003463003578436652</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2544469428103732</v>
+        <v>0.2532819483341827</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01006355932203384</v>
+        <v>0.002942750133761329</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2426963351702937</v>
+        <v>0.2433113877418613</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002989969135802517</v>
+        <v>0.00319241559446648</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2477552279086254</v>
+        <v>0.2490643192068853</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0002555583950932805</v>
+        <v>0.006518404907975395</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -590,10 +590,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.005510252255523707</v>
+        <v>0.003233677481588204</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2543423447170707</v>
+        <v>0.2536103295502961</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0003463003578436652</v>
+        <v>0.007962150934687218</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2532819483341827</v>
+        <v>0.2532084991995142</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002942750133761329</v>
+        <v>0.01146972526006929</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2433113877418613</v>
+        <v>0.2433013806146668</v>
       </c>
       <c r="E4" s="1">
-        <v>0.00319241559446648</v>
+        <v>0.01369334619093543</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2490643192068853</v>
+        <v>0.2498797906355229</v>
       </c>
       <c r="E5" s="1">
-        <v>0.006518404907975395</v>
+        <v>0.003809523809523707</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.003233677481588204</v>
+        <v>0.009207048687242203</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2536103295502961</v>
+        <v>0.2532974909413183</v>
       </c>
       <c r="E2" s="1">
-        <v>0.007962150934687218</v>
+        <v>-0.001030337721808716</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2532084991995142</v>
+        <v>0.2537762012780171</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01146972526006929</v>
+        <v>0.001845991561181481</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2433013806146668</v>
+        <v>0.2443829449754355</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01369334619093543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2498797906355229</v>
+        <v>0.2485433628052291</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003809523809523707</v>
+        <v>-0.003289057558507169</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -590,10 +590,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.009207048687242203</v>
+        <v>-0.0006099866598198167</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -40,7 +40,7 @@
     <t>XLI</t>
   </si>
   <si>
-    <t>XLC</t>
+    <t>XLE</t>
   </si>
   <si>
     <t>Total</t>
@@ -55,7 +55,7 @@
     <t>Industrial Select Sector SPDR Fund</t>
   </si>
   <si>
-    <t>Communication Services Select Sector SPDR Fund</t>
+    <t>Energy Select Sector SPDR Fund</t>
   </si>
   <si>
     <t>Basic Materials Funds</t>
@@ -67,11 +67,11 @@
     <t>Industrials Funds</t>
   </si>
   <si>
-    <t>Telecommunication Funds</t>
+    <t>Natural Resources Funds</t>
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2532974909413183</v>
+        <v>0.2500135127183522</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001030337721808716</v>
+        <v>-0.007816091954023108</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2537762012780171</v>
+        <v>0.2499863450183538</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001845991561181481</v>
+        <v>-0.009443861490031513</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2443829449754355</v>
+        <v>0.2499918152714616</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>-0.01020213577421814</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2485433628052291</v>
+        <v>0.2500083269918323</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.003289057558507169</v>
+        <v>-0.006251116270762691</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -590,10 +590,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0006099866598198167</v>
+        <v>-0.008428246584434973</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2500135127183522</v>
+        <v>0.2501678605292382</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.007816091954023108</v>
+        <v>-0.006024096385542133</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2499863450183538</v>
+        <v>0.2497302971253782</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.009443861490031513</v>
+        <v>-0.01165254237288127</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2499918152714616</v>
+        <v>0.2495445881523784</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01020213577421814</v>
+        <v>-0.004912821500818731</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2500083269918323</v>
+        <v>0.2505572541930051</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.006251116270762691</v>
+        <v>-0.001258087706685784</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -590,10 +590,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.008428246584434973</v>
+        <v>-0.005958219192847891</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2501678605292382</v>
+        <v>0.2505388609227273</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.006024096385542133</v>
+        <v>-0.01230840687412915</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2497302971253782</v>
+        <v>0.2493537055696012</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01165254237288127</v>
+        <v>-0.01038338658146964</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2495445881523784</v>
+        <v>0.2497711468841231</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.004912821500818731</v>
+        <v>-0.004540624094290346</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2505572541930051</v>
+        <v>0.2503362866235485</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001258087706685784</v>
+        <v>-0.004333694474539573</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -590,10 +590,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.005958219192847891</v>
+        <v>-0.007891868028186644</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2505388609227273</v>
+        <v>0.2461642478045169</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01230840687412915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2493537055696012</v>
+        <v>0.2501565210290889</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01038338658146964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2497711468841231</v>
+        <v>0.2558192987588282</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.004540624094290346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2503362866235485</v>
+        <v>0.2478599324075659</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.004333694474539573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.007891868028186644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -531,7 +531,7 @@
         <v>0.2461642478045169</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.01041028781383946</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -548,7 +548,7 @@
         <v>0.2501565210290889</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.001375137513751179</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -565,7 +565,7 @@
         <v>0.2558192987588282</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.009970674486803555</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -582,7 +582,7 @@
         <v>0.2478599324075659</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>-0.01625401625401623</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.001428611870793572</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2461642478045169</v>
+        <v>0.2483720611986374</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01041028781383946</v>
+        <v>-0.01357575757575757</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2501565210290889</v>
+        <v>0.250143163153187</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001375137513751179</v>
+        <v>-0.02004943696786576</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2558192987588282</v>
+        <v>0.2580014058431259</v>
       </c>
       <c r="E4" s="1">
-        <v>0.009970674486803555</v>
+        <v>-0.01393728222996515</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2478599324075659</v>
+        <v>0.2434833698050496</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01625401625401623</v>
+        <v>-0.005763688760806795</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -590,10 +590,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001428611870793572</v>
+        <v>-0.01338626924495856</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2483720611986374</v>
+        <v>0.2483243590373695</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01357575757575757</v>
+        <v>0.01966085033177678</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.250143163153187</v>
+        <v>0.2484538030734802</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.02004943696786576</v>
+        <v>0.02886771300448432</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2580014058431259</v>
+        <v>0.2578573148779001</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01393728222996515</v>
+        <v>0.0158029053788773</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2434833698050496</v>
+        <v>0.2453645230112503</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.005763688760806795</v>
+        <v>0.02125603864734305</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -590,10 +590,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01338626924495856</v>
+        <v>0.02134493367084689</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2483243590373695</v>
+        <v>0.2479191373620156</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01966085033177678</v>
+        <v>-0.009129129129129221</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2484538030734802</v>
+        <v>0.2519228503697343</v>
       </c>
       <c r="E3" s="1">
-        <v>0.02886771300448432</v>
+        <v>-0.01079039654707303</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2578573148779001</v>
+        <v>0.255976555099714</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0158029053788773</v>
+        <v>-0.009649715333397757</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2453645230112503</v>
+        <v>0.2441814571685362</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02125603864734305</v>
+        <v>-0.007580064430547706</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02134493367084689</v>
+        <v>-0.009302645340137028</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/SECTOR_holdings.xlsx
+++ b/SECTOR_holdings.xlsx
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2479191373620156</v>
+        <v>0.2479625592901645</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.009129129129129221</v>
+        <v>-0.002060855861316435</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2519228503697343</v>
+        <v>0.251544532487962</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01079039654707303</v>
+        <v>-0.00463594218707386</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>0.255976555099714</v>
+        <v>0.2558868790943876</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.009649715333397757</v>
+        <v>-9.743739647261052E-05</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -579,10 +579,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2441814571685362</v>
+        <v>0.2446060291274859</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.007580064430547706</v>
+        <v>-0.02978804659155998</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.009302645340137028</v>
+        <v>-0.008988429747305515</v>
       </c>
     </row>
     <row r="9" spans="1:5">
